--- a/biology/Médecine/1191_en_santé_et_médecine/1191_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1191_en_santé_et_médecine/1191_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1191_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1191_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1191 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1191_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1191_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sava Nemanjic pourvoit le monastère de Hilandar, qu'il fonde sur le Mont Athos, d'un hôpital auquel Uros IV, roi de  Serbie, fera construire une annexe en 1340[1].
-Fondation probable, à Saint-Léonard-de-Noblat dans le comté de la  Marche, d'un hôtel-Dieu dont l'existence sera attestée en 1250[2].
-Un hôpital anglais, actif dans le camp des croisés pendant le siège d'Acre, est installé intra-muros après la chute de la ville, premier établissement de l'ordre hospitalier de Saint-Thomas de Cantorbéry (Hospitaliers of St. Thomas of Canterbury at Acre) qui, en 1236, sera officiellement refondé comme ordre militaire par Pierre des Roches, évêque de Winchester[3].
-Un hôpital est attesté à Pézenas, en Languedoc, établissement réuni en 1516 à la maladrerie et aux deux maisons de charité pour former un « hôpital des pauvres », reconstruit en 1627 sous le nom d'hôpital Saint-Jacques, et qui restera en activité jusqu'au XXe siècle[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sava Nemanjic pourvoit le monastère de Hilandar, qu'il fonde sur le Mont Athos, d'un hôpital auquel Uros IV, roi de  Serbie, fera construire une annexe en 1340.
+Fondation probable, à Saint-Léonard-de-Noblat dans le comté de la  Marche, d'un hôtel-Dieu dont l'existence sera attestée en 1250.
+Un hôpital anglais, actif dans le camp des croisés pendant le siège d'Acre, est installé intra-muros après la chute de la ville, premier établissement de l'ordre hospitalier de Saint-Thomas de Cantorbéry (Hospitaliers of St. Thomas of Canterbury at Acre) qui, en 1236, sera officiellement refondé comme ordre militaire par Pierre des Roches, évêque de Winchester.
+Un hôpital est attesté à Pézenas, en Languedoc, établissement réuni en 1516 à la maladrerie et aux deux maisons de charité pour former un « hôpital des pauvres », reconstruit en 1627 sous le nom d'hôpital Saint-Jacques, et qui restera en activité jusqu'au XXe siècle.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1191_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1191_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après l'Historia Anglorum de Matthieu Paris, Jean de Saint-Albans, « pendant l'été, en Terre sainte, guérit Philippe-Auguste de la peste[5] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après l'Historia Anglorum de Matthieu Paris, Jean de Saint-Albans, « pendant l'été, en Terre sainte, guérit Philippe-Auguste de la peste ».</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1191_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1191_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Bertrand, médecin à Montpellier[6].
-Fl. Jean et Jean, tous deux médecins et moines, l'un de l'abbaye de Reigny en Bourgogne, et l'autre de celle de Bonnecombe au diocèse de Rodez[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Bertrand, médecin à Montpellier.
+Fl. Jean et Jean, tous deux médecins et moines, l'un de l'abbaye de Reigny en Bourgogne, et l'autre de celle de Bonnecombe au diocèse de Rodez.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1191_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1191_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avril : Muwaffaq al-Din ibn al-Muṭran (né à une date inconnue), médecin de Saladin[7].
-Abbon (né à une date inconnue), prêtre, chanoine, docteur en médecine à Auxerre, en Bourgogne, dans le testament duquel figurent « non seulement des livres de médecine, mais aussi des ustensiles de pharmacie[6] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avril : Muwaffaq al-Din ibn al-Muṭran (né à une date inconnue), médecin de Saladin.
+Abbon (né à une date inconnue), prêtre, chanoine, docteur en médecine à Auxerre, en Bourgogne, dans le testament duquel figurent « non seulement des livres de médecine, mais aussi des ustensiles de pharmacie ».</t>
         </is>
       </c>
     </row>
